--- a/40_数据库/学习笔记_RDBMS_SqlServer.xlsx
+++ b/40_数据库/学习笔记_RDBMS_SqlServer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -355,12 +355,272 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SQL Server 2019 远程访问的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>勾选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>允许远程连接到此服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(也可取消勾选），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>点击确定</t>
+    </r>
+  </si>
+  <si>
+    <t>菜单栏中打开SQL Server 2019 配置管理器</t>
+  </si>
+  <si>
+    <t>将 TPC/IP 启用</t>
+  </si>
+  <si>
+    <r>
+      <t>右击 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>TCP/IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF555666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，在IP地址中找到并记下TCP端口（默认都为1433）</t>
+    </r>
+  </si>
+  <si>
+    <t>在防护墙和网络保护打开高级设置</t>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>入站规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>中，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>新建规则</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>特定本地端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，填写之前记下的端口号（一般为1433），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>允许连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>下一步</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>填写名称和描述（可选）后，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>回到SSMS，右击选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>重新启动</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +757,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC7254E"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -540,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -572,6 +859,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,6 +949,671 @@
         <a:xfrm>
           <a:off x="4410075" y="628650"/>
           <a:ext cx="9058275" cy="8943975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://img-blog.csdnimg.cn/20210305140601802.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="409575" y="800100"/>
+          <a:ext cx="4724400" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://img-blog.csdnimg.cn/20210305140634946.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5695950" y="600075"/>
+          <a:ext cx="6419850" cy="5273941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://img-blog.csdnimg.cn/20210305140713215.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="8020050"/>
+          <a:ext cx="3295650" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="https://img-blog.csdnimg.cn/20210305140734720.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="752475" y="8953500"/>
+          <a:ext cx="7143750" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>58607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="https://img-blog.csdnimg.cn/20210305140818111.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="12917357"/>
+          <a:ext cx="7677150" cy="5989767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>96412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>86053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="https://img-blog.csdnimg.cn/20210305140837602.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="809625" y="19470262"/>
+          <a:ext cx="7210425" cy="4875966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="https://img-blog.csdnimg.cn/20210305140850492.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="26508075"/>
+          <a:ext cx="12439650" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560420</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="https://img-blog.csdnimg.cn/20210305140904406.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="28670250"/>
+          <a:ext cx="6580220" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>171557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="https://img-blog.csdnimg.cn/20210305140917743.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="34109025"/>
+          <a:ext cx="6391275" cy="4829282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>135187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="https://img-blog.csdnimg.cn/20210305140930601.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="43843575"/>
+          <a:ext cx="7124700" cy="5383462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2119</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="https://img-blog.csdnimg.cn/20210305140951161.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3dlaXhpbl80NjYyODQ4MQ==,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="687919" y="49663350"/>
+          <a:ext cx="6655855" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="https://img-blog.csdnimg.cn/20210305141021318.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="55187850"/>
+          <a:ext cx="7219950" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,7 +1890,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -972,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
@@ -1576,16 +2533,79 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A36:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I2" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B129" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B150" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B180" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B209" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B241" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B271" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
